--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Fzd8</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N2">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q2">
-        <v>0.4439415823547778</v>
+        <v>0.4068565909462222</v>
       </c>
       <c r="R2">
-        <v>3.995474241193</v>
+        <v>3.661709318516</v>
       </c>
       <c r="S2">
-        <v>0.005841842890697102</v>
+        <v>0.005330634813984053</v>
       </c>
       <c r="T2">
-        <v>0.005841842890697103</v>
+        <v>0.005330634813984055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +623,10 @@
         <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P3">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q3">
         <v>1.408438166875111</v>
@@ -638,10 +635,10 @@
         <v>12.675943501876</v>
       </c>
       <c r="S3">
-        <v>0.01853368735702367</v>
+        <v>0.01845335602952227</v>
       </c>
       <c r="T3">
-        <v>0.01853368735702367</v>
+        <v>0.01845335602952228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +673,34 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N4">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="O4">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P4">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q4">
-        <v>0.0004862569136666668</v>
+        <v>0.2036996463387778</v>
       </c>
       <c r="R4">
-        <v>0.004376312223000001</v>
+        <v>1.833296817049</v>
       </c>
       <c r="S4">
-        <v>6.398671823190071E-06</v>
+        <v>0.002668872645873529</v>
       </c>
       <c r="T4">
-        <v>6.398671823190073E-06</v>
+        <v>0.00266887264587353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,39 +735,39 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N5">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="O5">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P5">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q5">
-        <v>0.1586381867022222</v>
+        <v>0.001897110854777778</v>
       </c>
       <c r="R5">
-        <v>1.42774368032</v>
+        <v>0.017073997693</v>
       </c>
       <c r="S5">
-        <v>0.002087525476356141</v>
+        <v>2.485594529744797E-05</v>
       </c>
       <c r="T5">
-        <v>0.002087525476356141</v>
+        <v>2.485594529744798E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1599003333333333</v>
+        <v>5.879152</v>
       </c>
       <c r="H6">
-        <v>0.479701</v>
+        <v>17.637456</v>
       </c>
       <c r="I6">
-        <v>0.0264777194346773</v>
+        <v>0.9735222805653226</v>
       </c>
       <c r="J6">
-        <v>0.02647771943467731</v>
+        <v>0.9735222805653228</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003928</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N6">
-        <v>0.011784</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q6">
-        <v>0.0006280885093333334</v>
+        <v>14.95914167601067</v>
       </c>
       <c r="R6">
-        <v>0.005652796584000001</v>
+        <v>134.632275084096</v>
       </c>
       <c r="S6">
-        <v>8.265038777208352E-06</v>
+        <v>0.1959946653930509</v>
       </c>
       <c r="T6">
-        <v>8.265038777208354E-06</v>
+        <v>0.195994665393051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.776364333333333</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N7">
-        <v>8.329093</v>
+        <v>26.424676</v>
       </c>
       <c r="O7">
-        <v>0.2206324039768381</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P7">
-        <v>0.2206324039768381</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q7">
-        <v>16.32266792304533</v>
+        <v>51.78489558491733</v>
       </c>
       <c r="R7">
-        <v>146.904011307408</v>
+        <v>466.064060264256</v>
       </c>
       <c r="S7">
-        <v>0.214790561086141</v>
+        <v>0.6784856713307535</v>
       </c>
       <c r="T7">
-        <v>0.214790561086141</v>
+        <v>0.6784856713307538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.808225333333333</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N8">
-        <v>26.424676</v>
+        <v>3.821749</v>
       </c>
       <c r="O8">
-        <v>0.6999729490580858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P8">
-        <v>0.6999729490580857</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q8">
-        <v>51.78489558491733</v>
+        <v>7.489547758949334</v>
       </c>
       <c r="R8">
-        <v>466.064060264256</v>
+        <v>67.405929830544</v>
       </c>
       <c r="S8">
-        <v>0.6814392617010622</v>
+        <v>0.09812805030883393</v>
       </c>
       <c r="T8">
-        <v>0.6814392617010621</v>
+        <v>0.09812805030883395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -992,152 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.003041</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N9">
-        <v>0.009123000000000001</v>
+        <v>0.035593</v>
       </c>
       <c r="O9">
-        <v>0.0002416624981232284</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P9">
-        <v>0.0002416624981232283</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q9">
-        <v>0.017878501232</v>
+        <v>0.06975221904533334</v>
       </c>
       <c r="R9">
-        <v>0.160906511088</v>
+        <v>0.6277699714079999</v>
       </c>
       <c r="S9">
-        <v>0.0002352638263000383</v>
+        <v>0.0009138935326842044</v>
       </c>
       <c r="T9">
-        <v>0.0002352638263000383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.879152</v>
-      </c>
-      <c r="H10">
-        <v>17.637456</v>
-      </c>
-      <c r="I10">
-        <v>0.9735222805653226</v>
-      </c>
-      <c r="J10">
-        <v>0.9735222805653228</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.9921066666666668</v>
-      </c>
-      <c r="N10">
-        <v>2.97632</v>
-      </c>
-      <c r="O10">
-        <v>0.0788408337623728</v>
-      </c>
-      <c r="P10">
-        <v>0.07884083376237279</v>
-      </c>
-      <c r="Q10">
-        <v>5.832745893546668</v>
-      </c>
-      <c r="R10">
-        <v>52.49471304192001</v>
-      </c>
-      <c r="S10">
-        <v>0.07675330828601666</v>
-      </c>
-      <c r="T10">
-        <v>0.07675330828601665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5.879152</v>
-      </c>
-      <c r="H11">
-        <v>17.637456</v>
-      </c>
-      <c r="I11">
-        <v>0.9735222805653226</v>
-      </c>
-      <c r="J11">
-        <v>0.9735222805653228</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.003928</v>
-      </c>
-      <c r="N11">
-        <v>0.011784</v>
-      </c>
-      <c r="O11">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="P11">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="Q11">
-        <v>0.023093309056</v>
-      </c>
-      <c r="R11">
-        <v>0.207839781504</v>
-      </c>
-      <c r="S11">
-        <v>0.0003038856658028775</v>
-      </c>
-      <c r="T11">
-        <v>0.0003038856658028775</v>
+        <v>0.0009138935326842047</v>
       </c>
     </row>
   </sheetData>
